--- a/fMRI experiment/psychopy code/listening_instructions.xlsx
+++ b/fMRI experiment/psychopy code/listening_instructions.xlsx
@@ -20,10 +20,10 @@
     <t xml:space="preserve">Welcome to the story listening part of the experiment. </t>
   </si>
   <si>
-    <t>As a reminder, you will listen to 12 short stories in total.</t>
+    <t>As a reminder, you will listen to 12 short stories divided into 2 blocks of 6 stories.</t>
   </si>
   <si>
-    <t xml:space="preserve">Before some of these stories, we will ask you to take on a perspective. </t>
+    <t xml:space="preserve">Before some of the stories, we will ask you to take on a perspective. </t>
   </si>
   <si>
     <t xml:space="preserve">When you are assigned a perspective, you will take a quiz on it before starting to listen to the story. </t>
@@ -1355,13 +1355,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1387,7 +1381,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="56.35" customHeight="1">
+    <row r="3" ht="80.35" customHeight="1">
       <c r="A3" t="s" s="7">
         <v>2</v>
       </c>
@@ -1398,7 +1392,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" ht="68.35" customHeight="1">
+    <row r="4" ht="56.35" customHeight="1">
       <c r="A4" t="s" s="7">
         <v>3</v>
       </c>

--- a/fMRI experiment/psychopy code/listening_instructions.xlsx
+++ b/fMRI experiment/psychopy code/listening_instructions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>instructions</t>
   </si>
@@ -20,13 +20,19 @@
     <t xml:space="preserve">Welcome to the story listening part of the experiment. </t>
   </si>
   <si>
-    <t>As a reminder, you will listen to 12 short stories divided into 2 blocks of 6 stories.</t>
+    <t>As a reminder, you will listen to 12 short stories.</t>
   </si>
   <si>
-    <t xml:space="preserve">Before some of the stories, we will ask you to take on a perspective. </t>
+    <t>These stories will be divided into 2 blocks of 6 stories.</t>
   </si>
   <si>
-    <t xml:space="preserve">When you are assigned a perspective, you will take a quiz on it before starting to listen to the story. </t>
+    <t xml:space="preserve">Before some of the stories, we will ask you to take on the perspective of a job. </t>
+  </si>
+  <si>
+    <t>Please “simulate” this job while you listen to the story that follows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are assigned a perspective, you will take a quiz on it before starting the story. </t>
   </si>
   <si>
     <t>Before you begin, we will go over how to use the button box:</t>
@@ -42,7 +48,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -54,13 +60,18 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +90,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -206,31 +223,31 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -254,6 +271,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -270,10 +288,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -467,14 +485,15 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -489,35 +508,29 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -770,14 +783,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1066,7 +1085,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1347,15 +1366,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1392,7 +1415,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" ht="56.35" customHeight="1">
+    <row r="4" ht="80.35" customHeight="1">
       <c r="A4" t="s" s="7">
         <v>3</v>
       </c>
@@ -1403,7 +1426,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="92.35" customHeight="1">
+    <row r="5" ht="56.35" customHeight="1">
       <c r="A5" t="s" s="7">
         <v>4</v>
       </c>
@@ -1436,8 +1459,10 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="10"/>
+    <row r="8" ht="56.35" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>7</v>
+      </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1445,8 +1470,10 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="10"/>
+    <row r="9" ht="92.35" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>8</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1562,6 +1589,24 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
+    <row r="22" ht="20.35" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" ht="20.35" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/fMRI experiment/psychopy code/listening_instructions.xlsx
+++ b/fMRI experiment/psychopy code/listening_instructions.xlsx
@@ -1,7 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>instructions</t>
   </si>
@@ -30,9 +29,6 @@
   </si>
   <si>
     <t>Please “simulate” this job while you listen to the story that follows.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you are assigned a perspective, you will take a quiz on it before starting the story. </t>
   </si>
   <si>
     <t>Before you begin, we will go over how to use the button box:</t>
@@ -226,28 +222,28 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1366,19 +1362,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1448,7 +1438,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" ht="92.35" customHeight="1">
+    <row r="7" ht="56.35" customHeight="1">
       <c r="A7" t="s" s="7">
         <v>6</v>
       </c>
@@ -1459,7 +1449,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" ht="56.35" customHeight="1">
+    <row r="8" ht="92.35" customHeight="1">
       <c r="A8" t="s" s="7">
         <v>7</v>
       </c>
@@ -1470,10 +1460,8 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" ht="92.35" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>8</v>
-      </c>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="10"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1598,15 +1586,6 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/fMRI experiment/psychopy code/listening_instructions.xlsx
+++ b/fMRI experiment/psychopy code/listening_instructions.xlsx
@@ -1,6 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>instructions</t>
   </si>
@@ -29,6 +30,12 @@
   </si>
   <si>
     <t>Please “simulate” this job while you listen to the story that follows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even if we do not give you a perspective for some of them, please listen to all of the stories carefully. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to be as still as possible during the scan, especially as you are listening to the stories. </t>
   </si>
   <si>
     <t>Before you begin, we will go over how to use the button box:</t>
@@ -1362,7 +1369,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1449,7 +1456,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" ht="92.35" customHeight="1">
+    <row r="8" ht="56.35" customHeight="1">
       <c r="A8" t="s" s="7">
         <v>7</v>
       </c>
@@ -1460,8 +1467,10 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="10"/>
+    <row r="9" ht="56.35" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>8</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1469,8 +1478,10 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="10"/>
+    <row r="10" ht="92.35" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>9</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1586,6 +1597,24 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
+    <row r="23" ht="20.35" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="20.35" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
